--- a/data/linkprice.xlsx
+++ b/data/linkprice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,12 @@
     <t>http://www.emart.com</t>
   </si>
   <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>http://kr.strawberrynet.com/main.aspx</t>
+  </si>
+  <si>
     <t>nsseshop</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
     <t>http://www.gabia.com</t>
   </si>
   <si>
+    <t>gseshop</t>
+  </si>
+  <si>
+    <t>http://www.gsshop.com</t>
+  </si>
+  <si>
     <t>ssbooks</t>
   </si>
   <si>
@@ -95,24 +107,36 @@
     <t>http://www.istyle24.com</t>
   </si>
   <si>
+    <t>kumkang</t>
+  </si>
+  <si>
+    <t>http://www.kumkangmall.com</t>
+  </si>
+  <si>
     <t>allcredit</t>
   </si>
   <si>
     <t>http://www.allcredit.co.kr</t>
   </si>
   <si>
+    <t>11st</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr</t>
+  </si>
+  <si>
+    <t>onlinetour</t>
+  </si>
+  <si>
+    <t>http://www.onlinetour.co.kr</t>
+  </si>
+  <si>
     <t>boribori</t>
   </si>
   <si>
     <t>http://www.boribori.co.kr</t>
   </si>
   <si>
-    <t>onlinetour</t>
-  </si>
-  <si>
-    <t>http://www.onlinetour.co.kr</t>
-  </si>
-  <si>
     <t>cjmall</t>
   </si>
   <si>
@@ -161,6 +185,12 @@
     <t>http://www.e-himart.co.kr</t>
   </si>
   <si>
+    <t>kbbook</t>
+  </si>
+  <si>
+    <t>http://www.kyobobook.co.kr</t>
+  </si>
+  <si>
     <t>madam4060</t>
   </si>
   <si>
@@ -257,12 +287,24 @@
     <t>http://www.blindqueen.com</t>
   </si>
   <si>
+    <t>evasion</t>
+  </si>
+  <si>
+    <t>http://www.evasion.co.kr</t>
+  </si>
+  <si>
     <t>dmtourmall</t>
   </si>
   <si>
     <t>http://www.daemyungtourmall.com</t>
   </si>
   <si>
+    <t>yoox</t>
+  </si>
+  <si>
+    <t>https://www.yoox.com/</t>
+  </si>
+  <si>
     <t>webtour</t>
   </si>
   <si>
@@ -389,16 +431,28 @@
     <t>http://global.rakuten.com/ko/</t>
   </si>
   <si>
+    <t>villeroy</t>
+  </si>
+  <si>
+    <t>http://www.villeroy-boch.com</t>
+  </si>
+  <si>
+    <t>disney</t>
+  </si>
+  <si>
+    <t>http://www.disneystore.com</t>
+  </si>
+  <si>
     <t>newbalance</t>
   </si>
   <si>
     <t>http://www.joesnewbalanceoutlet.com</t>
   </si>
   <si>
-    <t>villeroy</t>
-  </si>
-  <si>
-    <t>http://www.villeroy-boch.com</t>
+    <t>finishline</t>
+  </si>
+  <si>
+    <t>http://www.finishline.com</t>
   </si>
   <si>
     <t>rebecca</t>
@@ -407,16 +461,10 @@
     <t>http://www.rebeccaminkoff.com</t>
   </si>
   <si>
-    <t>finishline</t>
-  </si>
-  <si>
-    <t>http://www.finishline.com</t>
-  </si>
-  <si>
-    <t>disney</t>
-  </si>
-  <si>
-    <t>http://www.disneystore.com</t>
+    <t>bcountry</t>
+  </si>
+  <si>
+    <t>http://www.backcountry.com</t>
   </si>
   <si>
     <t>saksfifth</t>
@@ -425,12 +473,6 @@
     <t>http://www.saksoff5th.com/</t>
   </si>
   <si>
-    <t>bcountry</t>
-  </si>
-  <si>
-    <t>http://www.backcountry.com</t>
-  </si>
-  <si>
     <t>shutter</t>
   </si>
   <si>
@@ -443,12 +485,6 @@
     <t>http://www.dk-ecofarm.co.kr</t>
   </si>
   <si>
-    <t>ssfshop</t>
-  </si>
-  <si>
-    <t>http://www.ssfshop.com</t>
-  </si>
-  <si>
     <t>aliexpress</t>
   </si>
   <si>
@@ -467,24 +503,24 @@
     <t>http://www.zulily.com</t>
   </si>
   <si>
+    <t>interpark2</t>
+  </si>
+  <si>
+    <t>http://book.interpark.com</t>
+  </si>
+  <si>
+    <t>eastdane</t>
+  </si>
+  <si>
+    <t>https://www.eastdane.com</t>
+  </si>
+  <si>
     <t>shopbop1</t>
   </si>
   <si>
     <t>https://www.shopbop.com</t>
   </si>
   <si>
-    <t>interpark2</t>
-  </si>
-  <si>
-    <t>http://book.interpark.com</t>
-  </si>
-  <si>
-    <t>eastdane</t>
-  </si>
-  <si>
-    <t>https://www.eastdane.com</t>
-  </si>
-  <si>
     <t>lottorich</t>
   </si>
   <si>
@@ -533,18 +569,18 @@
     <t>http://21dressroom.com</t>
   </si>
   <si>
-    <t>paleo</t>
-  </si>
-  <si>
-    <t>http://www.hempseed.co.kr/</t>
-  </si>
-  <si>
     <t>dongwon</t>
   </si>
   <si>
     <t>http://www.dongwonmall.com</t>
   </si>
   <si>
+    <t>healthpost</t>
+  </si>
+  <si>
+    <t>http://www.healthpost.co.nz</t>
+  </si>
+  <si>
     <t>macys</t>
   </si>
   <si>
@@ -671,18 +707,18 @@
     <t>http://www.lightinthebox.com</t>
   </si>
   <si>
+    <t>kyungrok</t>
+  </si>
+  <si>
+    <t>http://www.kyungrok.com</t>
+  </si>
+  <si>
     <t>cyberlink</t>
   </si>
   <si>
     <t>http://www.cyberlink.com</t>
   </si>
   <si>
-    <t>kyungrok</t>
-  </si>
-  <si>
-    <t>http://www.kyungrok.com</t>
-  </si>
-  <si>
     <t>mysimcafe</t>
   </si>
   <si>
@@ -707,18 +743,18 @@
     <t>http://www.newegg.com</t>
   </si>
   <si>
+    <t>brolico</t>
+  </si>
+  <si>
+    <t>http://www.brolicoactive.com</t>
+  </si>
+  <si>
     <t>ichiba</t>
   </si>
   <si>
     <t>https://www.rakuten.co.jp/</t>
   </si>
   <si>
-    <t>brolico</t>
-  </si>
-  <si>
-    <t>http://www.brolicoactive.com</t>
-  </si>
-  <si>
     <t>epost</t>
   </si>
   <si>
@@ -857,16 +893,22 @@
     <t>http://www.dangoll.com</t>
   </si>
   <si>
+    <t>luplat</t>
+  </si>
+  <si>
+    <t>http://www.luplat.com</t>
+  </si>
+  <si>
     <t>foreo</t>
   </si>
   <si>
     <t>https://www.foreo.com</t>
   </si>
   <si>
-    <t>luplat</t>
-  </si>
-  <si>
-    <t>http://www.luplat.com</t>
+    <t>dyson</t>
+  </si>
+  <si>
+    <t>https://www.dyson.com/en.html</t>
   </si>
   <si>
     <t>sajomall</t>
@@ -915,6 +957,12 @@
   </si>
   <si>
     <t>http://www.elroel.com</t>
+  </si>
+  <si>
+    <t>mskorea</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ko-kr/</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1320,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -2480,6 +2528,70 @@
       </c>
       <c r="B150" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
